--- a/BackTest/2019-10-29 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-29 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-7288.414982219999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,24 +517,21 @@
         <v>-7279.414982219999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>187</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,24 +556,19 @@
         <v>-7279.414982219999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>188</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -612,24 +593,19 @@
         <v>-7279.414982219999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>188</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -654,24 +630,19 @@
         <v>-7278.414982219999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>188</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -698,20 +669,17 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -736,22 +704,19 @@
         <v>-7277.414982219999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -778,20 +743,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -818,20 +780,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -858,20 +817,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -898,20 +854,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -938,20 +891,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -978,20 +928,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1018,20 +965,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1058,20 +1002,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1098,20 +1039,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1138,20 +1076,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1178,20 +1113,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1218,20 +1150,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1258,20 +1187,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1298,20 +1224,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1338,20 +1261,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1376,24 +1296,19 @@
         <v>-27910.13052179</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>185</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1418,24 +1333,21 @@
         <v>-27910.13052179</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
         <v>184</v>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1460,24 +1372,21 @@
         <v>-26832.06452179</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
         <v>184</v>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1502,24 +1411,19 @@
         <v>-25621.44552179</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>186</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1544,24 +1448,19 @@
         <v>-23137.36042179</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>187</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1586,24 +1485,19 @@
         <v>-23101.52832179</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>188</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1628,24 +1522,19 @@
         <v>-23108.34312179</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>189</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1670,24 +1559,21 @@
         <v>-23125.34312179</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>188</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>188</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1712,24 +1598,21 @@
         <v>-23124.34312179</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
         <v>185</v>
       </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1756,20 +1639,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1794,22 +1674,21 @@
         <v>-22916.04932179</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1836,20 +1715,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1876,20 +1752,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1916,20 +1789,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1956,20 +1826,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1996,20 +1863,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2034,22 +1898,21 @@
         <v>-24317.04932179</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2074,22 +1937,21 @@
         <v>-24119.04932179</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2114,22 +1976,21 @@
         <v>-24119.04932179</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2154,22 +2015,21 @@
         <v>-24777.26432179</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2194,22 +2054,21 @@
         <v>-17801.16702179</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2234,24 +2093,21 @@
         <v>-17801.16702179</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>188</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>188</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2278,20 +2134,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2316,24 +2169,19 @@
         <v>-17801.16702179</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>188</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2358,24 +2206,21 @@
         <v>-16969.92862179</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>188</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>188</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2400,24 +2245,19 @@
         <v>-16969.92862179</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>189</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2442,24 +2282,21 @@
         <v>-16809.77072706</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
         <v>189</v>
       </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2484,24 +2321,19 @@
         <v>-16809.77072706</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>190</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2528,20 +2360,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2568,20 +2397,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2608,20 +2434,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2648,20 +2471,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2688,20 +2508,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2728,20 +2545,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2768,20 +2582,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2808,20 +2619,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2846,22 +2654,17 @@
         <v>13782.64117294</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2886,22 +2689,15 @@
         <v>17575.29458945</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2926,22 +2722,15 @@
         <v>12165.54340596</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2966,22 +2755,15 @@
         <v>7966.043405960001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3006,22 +2788,15 @@
         <v>-1928.563694039998</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3046,22 +2821,15 @@
         <v>-1928.563694039998</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3086,22 +2854,15 @@
         <v>-1920.563694039998</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3128,20 +2889,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3168,20 +2922,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3208,18 +2955,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L70" t="n">
+        <v>1</v>
       </c>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3246,16 +2988,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3280,18 +3019,15 @@
         <v>-2666.113994039998</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3316,18 +3052,15 @@
         <v>-3583.017394039998</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3352,18 +3085,15 @@
         <v>-16843.21809404</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3390,16 +3120,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3426,16 +3153,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3462,16 +3186,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3496,18 +3217,15 @@
         <v>-19541.23599404</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3534,16 +3252,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3570,16 +3285,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3606,16 +3318,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3642,16 +3351,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3678,16 +3384,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3714,16 +3417,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3750,16 +3450,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3784,18 +3481,15 @@
         <v>-20515.98449404</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3822,16 +3516,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3858,16 +3549,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3894,16 +3582,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3930,16 +3615,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3966,16 +3648,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4002,16 +3681,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4038,16 +3714,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4074,16 +3747,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4110,16 +3780,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4146,16 +3813,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4182,16 +3846,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4218,16 +3879,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4254,16 +3912,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4290,16 +3945,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4326,16 +3978,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4362,16 +4011,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4398,16 +4044,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4434,16 +4077,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4470,16 +4110,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4506,16 +4143,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4542,16 +4176,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4578,16 +4209,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4614,16 +4242,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4650,16 +4275,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4686,16 +4308,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4722,16 +4341,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4758,16 +4374,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4794,16 +4407,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4830,16 +4440,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4866,16 +4473,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4902,16 +4506,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4938,16 +4539,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4974,16 +4572,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5010,16 +4605,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5046,16 +4638,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5082,16 +4671,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5118,18 +4704,15 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-29 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-7288.414982219999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,17 +517,11 @@
         <v>-7279.414982219999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -560,11 +554,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -593,15 +583,11 @@
         <v>-7279.414982219999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -630,15 +616,11 @@
         <v>-7278.414982219999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -667,15 +649,11 @@
         <v>-7278.414982219999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -704,15 +682,11 @@
         <v>-7277.414982219999</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -745,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -778,15 +748,11 @@
         <v>-5707.221282219999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -819,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -856,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -893,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -930,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -967,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1004,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1041,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1115,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1152,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1189,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1226,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1263,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1300,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1333,17 +1243,11 @@
         <v>-27910.13052179</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1372,17 +1276,11 @@
         <v>-26832.06452179</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1415,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1452,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1489,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1526,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1559,17 +1441,11 @@
         <v>-23125.34312179</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1598,17 +1474,11 @@
         <v>-23124.34312179</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1641,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1674,17 +1540,11 @@
         <v>-22916.04932179</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1717,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1754,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1791,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1828,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1865,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1898,17 +1738,11 @@
         <v>-24317.04932179</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1937,17 +1771,11 @@
         <v>-24119.04932179</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1976,17 +1804,11 @@
         <v>-24119.04932179</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2015,17 +1837,11 @@
         <v>-24777.26432179</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2054,17 +1870,15 @@
         <v>-17801.16702179</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>186</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="n">
+        <v>186</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2093,15 +1907,15 @@
         <v>-17801.16702179</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>188</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>186</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -2135,10 +1949,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>186</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2169,15 +1985,15 @@
         <v>-17801.16702179</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>188</v>
+      </c>
+      <c r="J48" t="n">
+        <v>188</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2206,15 +2022,17 @@
         <v>-16969.92862179</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>188</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>188</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2245,13 +2063,17 @@
         <v>-16969.92862179</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>189</v>
+      </c>
+      <c r="J50" t="n">
+        <v>188</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2282,17 +2104,15 @@
         <v>-16809.77072706</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>189</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="n">
+        <v>189</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2321,13 +2141,17 @@
         <v>-16809.77072706</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>190</v>
+      </c>
+      <c r="J52" t="n">
+        <v>189</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2361,10 +2185,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>189</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2399,11 +2225,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2436,11 +2258,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2473,11 +2291,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2510,11 +2324,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2547,11 +2357,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2584,11 +2390,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2621,11 +2423,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2654,16 +2452,14 @@
         <v>13782.64117294</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
       <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -2689,7 +2485,7 @@
         <v>17575.29458945</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2722,7 +2518,7 @@
         <v>12165.54340596</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2755,7 +2551,7 @@
         <v>7966.043405960001</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2788,7 +2584,7 @@
         <v>-1928.563694039998</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2821,7 +2617,7 @@
         <v>-1928.563694039998</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2854,7 +2650,7 @@
         <v>-1920.563694039998</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3019,7 +2815,7 @@
         <v>-2666.113994039998</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3052,7 +2848,7 @@
         <v>-3583.017394039998</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3085,7 +2881,7 @@
         <v>-16843.21809404</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3118,7 +2914,7 @@
         <v>-16809.84699404</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3151,7 +2947,7 @@
         <v>-17365.07749404</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3184,7 +2980,7 @@
         <v>-17364.07749404</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3217,7 +3013,7 @@
         <v>-19541.23599404</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3250,7 +3046,7 @@
         <v>-19549.23599404</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3283,7 +3079,7 @@
         <v>-19546.23599404</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3316,7 +3112,7 @@
         <v>-20558.91769404</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3349,7 +3145,7 @@
         <v>-20563.91769404</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3382,7 +3178,7 @@
         <v>-19277.88109404</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3415,7 +3211,7 @@
         <v>-19270.88109404</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3448,7 +3244,7 @@
         <v>-19270.88109404</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3481,7 +3277,7 @@
         <v>-20515.98449404</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3514,7 +3310,7 @@
         <v>-20511.05669404</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3943,7 +3739,7 @@
         <v>-56502.35506154001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3976,7 +3772,7 @@
         <v>-56502.35506154001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4009,7 +3805,7 @@
         <v>-56502.35506154001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4042,7 +3838,7 @@
         <v>-56502.35506154001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4075,7 +3871,7 @@
         <v>-60857.46356154001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4713,6 +4509,6 @@
       <c r="M123" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-29 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>-7279.414982219999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-7278.414982219999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-7278.414982219999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-7277.414982219999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-5707.221282219999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1276,10 +1276,14 @@
         <v>-26832.06452179</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>184</v>
+      </c>
+      <c r="J27" t="n">
+        <v>184</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1312,8 +1316,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>184</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1355,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>184</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1870,14 +1886,10 @@
         <v>-17801.16702179</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>186</v>
-      </c>
-      <c r="J45" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
@@ -1910,14 +1922,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>186</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1949,14 +1955,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>186</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1985,14 +1985,10 @@
         <v>-17801.16702179</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>188</v>
-      </c>
-      <c r="J48" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
@@ -2022,19 +2018,11 @@
         <v>-16969.92862179</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>188</v>
-      </c>
-      <c r="J49" t="n">
-        <v>188</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2063,19 +2051,11 @@
         <v>-16969.92862179</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>189</v>
-      </c>
-      <c r="J50" t="n">
-        <v>188</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2104,14 +2084,10 @@
         <v>-16809.77072706</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>189</v>
-      </c>
-      <c r="J51" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2141,19 +2117,11 @@
         <v>-16809.77072706</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>190</v>
-      </c>
-      <c r="J52" t="n">
-        <v>189</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2185,14 +2153,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>189</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2617,7 +2579,7 @@
         <v>-1928.563694039998</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2848,7 +2810,7 @@
         <v>-3583.017394039998</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2881,7 +2843,7 @@
         <v>-16843.21809404</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2914,7 +2876,7 @@
         <v>-16809.84699404</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2947,7 +2909,7 @@
         <v>-17365.07749404</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2980,7 +2942,7 @@
         <v>-17364.07749404</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3013,7 +2975,7 @@
         <v>-19541.23599404</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3046,7 +3008,7 @@
         <v>-19549.23599404</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3079,7 +3041,7 @@
         <v>-19546.23599404</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3112,7 +3074,7 @@
         <v>-20558.91769404</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3145,7 +3107,7 @@
         <v>-20563.91769404</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3178,7 +3140,7 @@
         <v>-19277.88109404</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3244,7 +3206,7 @@
         <v>-19270.88109404</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3376,7 +3338,7 @@
         <v>-47910.07186154</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3409,7 +3371,7 @@
         <v>-48746.06856154001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3442,7 +3404,7 @@
         <v>-48744.36466154001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3475,7 +3437,7 @@
         <v>-48744.36466154001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3508,7 +3470,7 @@
         <v>-48744.36466154001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3541,7 +3503,7 @@
         <v>-48743.36466154001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3739,7 +3701,7 @@
         <v>-56502.35506154001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3772,7 +3734,7 @@
         <v>-56502.35506154001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3805,7 +3767,7 @@
         <v>-56502.35506154001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3838,7 +3800,7 @@
         <v>-56502.35506154001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3871,7 +3833,7 @@
         <v>-60857.46356154001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4399,10 +4361,14 @@
         <v>-67077.54456154001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>188</v>
+      </c>
+      <c r="J120" t="n">
+        <v>188</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
@@ -4432,11 +4398,19 @@
         <v>-67933.71566154002</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>191</v>
+      </c>
+      <c r="J121" t="n">
+        <v>188</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4468,8 +4442,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>188</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4509,6 +4489,6 @@
       <c r="M123" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-29 BackTest STEEM.xlsx
@@ -1276,14 +1276,10 @@
         <v>-26832.06452179</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>184</v>
-      </c>
-      <c r="J27" t="n">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1316,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>184</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1355,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>184</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1853,10 +1837,14 @@
         <v>-24777.26432179</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>187</v>
+      </c>
+      <c r="J44" t="n">
+        <v>187</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
@@ -1886,11 +1874,19 @@
         <v>-17801.16702179</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>186</v>
+      </c>
+      <c r="J45" t="n">
+        <v>187</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1922,8 +1918,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>187</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1985,10 +1987,14 @@
         <v>-17801.16702179</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>188</v>
+      </c>
+      <c r="J48" t="n">
+        <v>188</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
@@ -2018,11 +2024,19 @@
         <v>-16969.92862179</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>188</v>
+      </c>
+      <c r="J49" t="n">
+        <v>188</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2051,11 +2065,19 @@
         <v>-16969.92862179</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>189</v>
+      </c>
+      <c r="J50" t="n">
+        <v>188</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2084,10 +2106,14 @@
         <v>-16809.77072706</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>189</v>
+      </c>
+      <c r="J51" t="n">
+        <v>189</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2117,11 +2143,19 @@
         <v>-16809.77072706</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>190</v>
+      </c>
+      <c r="J52" t="n">
+        <v>189</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2150,11 +2184,19 @@
         <v>-16801.77072706</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>190</v>
+      </c>
+      <c r="J53" t="n">
+        <v>189</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2183,10 +2225,14 @@
         <v>-16801.77072706</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>191</v>
+      </c>
+      <c r="J54" t="n">
+        <v>191</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
@@ -2219,8 +2265,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>191</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2252,8 +2304,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>191</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2285,8 +2343,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>191</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2318,8 +2382,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>191</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2351,8 +2421,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>191</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2384,8 +2460,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>191</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2417,8 +2499,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>191</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2450,8 +2538,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>191</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2483,8 +2577,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>191</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2513,11 +2613,17 @@
         <v>7966.043405960001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>191</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2549,8 +2655,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>191</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2579,11 +2691,17 @@
         <v>-1928.563694039998</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>191</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2615,8 +2733,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>191</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2648,8 +2772,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>191</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2681,8 +2811,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>191</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2711,13 +2847,19 @@
         <v>-1635.600094039998</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>191</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>1.026413612565445</v>
       </c>
       <c r="M70" t="inlineStr"/>
     </row>
@@ -2744,7 +2886,7 @@
         <v>-1889.600094039998</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2777,7 +2919,7 @@
         <v>-2666.113994039998</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2810,7 +2952,7 @@
         <v>-3583.017394039998</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2843,7 +2985,7 @@
         <v>-16843.21809404</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3074,7 +3216,7 @@
         <v>-20558.91769404</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3107,7 +3249,7 @@
         <v>-20563.91769404</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3140,7 +3282,7 @@
         <v>-19277.88109404</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3173,7 +3315,7 @@
         <v>-19270.88109404</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3206,7 +3348,7 @@
         <v>-19270.88109404</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3305,7 +3447,7 @@
         <v>-27287.45949404</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3404,7 +3546,7 @@
         <v>-48744.36466154001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3437,7 +3579,7 @@
         <v>-48744.36466154001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3470,7 +3612,7 @@
         <v>-48744.36466154001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3503,7 +3645,7 @@
         <v>-48743.36466154001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4328,10 +4470,14 @@
         <v>-67078.54456154001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>188</v>
+      </c>
+      <c r="J119" t="n">
+        <v>188</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
@@ -4369,7 +4515,11 @@
       <c r="J120" t="n">
         <v>188</v>
       </c>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4398,11 +4548,9 @@
         <v>-67933.71566154002</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
         <v>188</v>
       </c>
@@ -4439,50 +4587,54 @@
         <v>-67932.71566154002</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>188</v>
+      </c>
       <c r="J122" t="n">
         <v>188</v>
       </c>
-      <c r="K122" t="inlineStr">
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>191</v>
+      </c>
+      <c r="C123" t="n">
+        <v>191</v>
+      </c>
+      <c r="D123" t="n">
+        <v>191</v>
+      </c>
+      <c r="E123" t="n">
+        <v>191</v>
+      </c>
+      <c r="F123" t="n">
+        <v>900</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-67932.71566154002</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>188</v>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>191</v>
-      </c>
-      <c r="C123" t="n">
-        <v>191</v>
-      </c>
-      <c r="D123" t="n">
-        <v>191</v>
-      </c>
-      <c r="E123" t="n">
-        <v>191</v>
-      </c>
-      <c r="F123" t="n">
-        <v>900</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-67932.71566154002</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-29 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-29 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:L123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>87.8809</v>
       </c>
       <c r="G2" t="n">
-        <v>-7288.414982219999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>20.5174</v>
       </c>
       <c r="G3" t="n">
-        <v>-7288.414982219999</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="I3" t="n">
+        <v>187</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,21 @@
         <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>-7279.414982219999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>187</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +543,21 @@
         <v>208.8418</v>
       </c>
       <c r="G5" t="n">
-        <v>-7279.414982219999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>187</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +579,21 @@
         <v>399</v>
       </c>
       <c r="G6" t="n">
-        <v>-7279.414982219999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>187</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +615,21 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>-7278.414982219999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>187</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +651,21 @@
         <v>5533.2363</v>
       </c>
       <c r="G8" t="n">
-        <v>-7278.414982219999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>187</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +687,21 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>-7277.414982219999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>187</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +723,21 @@
         <v>5695.4073</v>
       </c>
       <c r="G10" t="n">
-        <v>-7277.414982219999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>187</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +759,21 @@
         <v>1570.1937</v>
       </c>
       <c r="G11" t="n">
-        <v>-5707.221282219999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>187</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +795,21 @@
         <v>518.93717277</v>
       </c>
       <c r="G12" t="n">
-        <v>-5707.221282219999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>187</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +831,21 @@
         <v>2.8835</v>
       </c>
       <c r="G13" t="n">
-        <v>-5710.104782219999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>187</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +867,21 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>-5710.104782219999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>187</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +903,21 @@
         <v>12.9752</v>
       </c>
       <c r="G15" t="n">
-        <v>-5710.104782219999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>187</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +939,21 @@
         <v>460.1418</v>
       </c>
       <c r="G16" t="n">
-        <v>-6170.246582219999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>187</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +975,21 @@
         <v>15600</v>
       </c>
       <c r="G17" t="n">
-        <v>-21770.24658222</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>187</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1011,21 @@
         <v>1070.0274</v>
       </c>
       <c r="G18" t="n">
-        <v>-21770.24658222</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>187</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1047,23 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>-21769.24658222</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>185</v>
+      </c>
+      <c r="I19" t="n">
+        <v>187</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1085,21 @@
         <v>998.5</v>
       </c>
       <c r="G20" t="n">
-        <v>-21769.24658222</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>187</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1121,21 @@
         <v>1063.8297</v>
       </c>
       <c r="G21" t="n">
-        <v>-21769.24658222</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>187</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1157,21 @@
         <v>13.43423957</v>
       </c>
       <c r="G22" t="n">
-        <v>-21782.68082179</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>187</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1193,21 @@
         <v>205</v>
       </c>
       <c r="G23" t="n">
-        <v>-21987.68082179</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>187</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1229,21 @@
         <v>4654.6333</v>
       </c>
       <c r="G24" t="n">
-        <v>-26642.31412179</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>187</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1265,23 @@
         <v>1267.8164</v>
       </c>
       <c r="G25" t="n">
-        <v>-27910.13052179</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>185</v>
+      </c>
+      <c r="I25" t="n">
+        <v>187</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1303,23 @@
         <v>104.9797</v>
       </c>
       <c r="G26" t="n">
-        <v>-27910.13052179</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I26" t="n">
+        <v>187</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1341,23 @@
         <v>1078.066</v>
       </c>
       <c r="G27" t="n">
-        <v>-26832.06452179</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="I27" t="n">
+        <v>187</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1379,23 @@
         <v>1210.619</v>
       </c>
       <c r="G28" t="n">
-        <v>-25621.44552179</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>186</v>
+      </c>
+      <c r="I28" t="n">
+        <v>187</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1417,21 @@
         <v>2484.0851</v>
       </c>
       <c r="G29" t="n">
-        <v>-23137.36042179</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>187</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1453,21 @@
         <v>35.8321</v>
       </c>
       <c r="G30" t="n">
-        <v>-23101.52832179</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>187</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1489,21 @@
         <v>6.8148</v>
       </c>
       <c r="G31" t="n">
-        <v>-23108.34312179</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>187</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1525,21 @@
         <v>17</v>
       </c>
       <c r="G32" t="n">
-        <v>-23125.34312179</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>187</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1561,21 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>-23124.34312179</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>187</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1597,21 @@
         <v>15.8395</v>
       </c>
       <c r="G34" t="n">
-        <v>-23140.18262179</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>187</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1633,21 @@
         <v>224.1333</v>
       </c>
       <c r="G35" t="n">
-        <v>-22916.04932179</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>187</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1669,21 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>-22917.04932179</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>187</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1705,21 @@
         <v>10.968</v>
       </c>
       <c r="G37" t="n">
-        <v>-22917.04932179</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>187</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1741,21 @@
         <v>15.6648</v>
       </c>
       <c r="G38" t="n">
-        <v>-22917.04932179</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>187</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1777,21 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>-22917.04932179</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>187</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1813,21 @@
         <v>9142.7719</v>
       </c>
       <c r="G40" t="n">
-        <v>-22917.04932179</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>187</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1849,21 @@
         <v>1400</v>
       </c>
       <c r="G41" t="n">
-        <v>-24317.04932179</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>187</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1885,21 @@
         <v>198</v>
       </c>
       <c r="G42" t="n">
-        <v>-24119.04932179</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>187</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1921,21 @@
         <v>17.9304</v>
       </c>
       <c r="G43" t="n">
-        <v>-24119.04932179</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>187</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,22 +1957,21 @@
         <v>658.215</v>
       </c>
       <c r="G44" t="n">
-        <v>-24777.26432179</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
         <v>187</v>
       </c>
-      <c r="J44" t="n">
-        <v>187</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1871,26 +1993,21 @@
         <v>6976.0973</v>
       </c>
       <c r="G45" t="n">
-        <v>-17801.16702179</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>186</v>
-      </c>
-      <c r="J45" t="n">
-        <v>187</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1912,24 +2029,21 @@
         <v>8105.8723</v>
       </c>
       <c r="G46" t="n">
-        <v>-17801.16702179</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>187</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>187</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1951,18 +2065,21 @@
         <v>404.7314</v>
       </c>
       <c r="G47" t="n">
-        <v>-17801.16702179</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>187</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1984,22 +2101,21 @@
         <v>378.55</v>
       </c>
       <c r="G48" t="n">
-        <v>-17801.16702179</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>188</v>
-      </c>
-      <c r="J48" t="n">
-        <v>188</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2021,26 +2137,21 @@
         <v>831.2384</v>
       </c>
       <c r="G49" t="n">
-        <v>-16969.92862179</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>188</v>
-      </c>
-      <c r="J49" t="n">
-        <v>188</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2062,26 +2173,21 @@
         <v>2050.2499</v>
       </c>
       <c r="G50" t="n">
-        <v>-16969.92862179</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>189</v>
-      </c>
-      <c r="J50" t="n">
-        <v>188</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2103,22 +2209,21 @@
         <v>160.15789473</v>
       </c>
       <c r="G51" t="n">
-        <v>-16809.77072706</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>189</v>
-      </c>
-      <c r="J51" t="n">
-        <v>189</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2140,26 +2245,21 @@
         <v>6487.40830527</v>
       </c>
       <c r="G52" t="n">
-        <v>-16809.77072706</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>190</v>
-      </c>
-      <c r="J52" t="n">
-        <v>189</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2181,26 +2281,21 @@
         <v>8</v>
       </c>
       <c r="G53" t="n">
-        <v>-16801.77072706</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>190</v>
-      </c>
-      <c r="J53" t="n">
-        <v>189</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2222,22 +2317,21 @@
         <v>8408.786727230001</v>
       </c>
       <c r="G54" t="n">
-        <v>-16801.77072706</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>191</v>
-      </c>
-      <c r="J54" t="n">
-        <v>191</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2259,24 +2353,21 @@
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>-16800.77072706</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>191</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>187</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2298,24 +2389,21 @@
         <v>15.9171</v>
       </c>
       <c r="G56" t="n">
-        <v>-16800.77072706</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>191</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>187</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2337,24 +2425,21 @@
         <v>9698.020500000001</v>
       </c>
       <c r="G57" t="n">
-        <v>-7102.75022706</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>191</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>187</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2376,24 +2461,21 @@
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>-7101.75022706</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>191</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>187</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2415,24 +2497,21 @@
         <v>23022.0868</v>
       </c>
       <c r="G59" t="n">
-        <v>15920.33657294</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>191</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>187</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2454,24 +2533,21 @@
         <v>9</v>
       </c>
       <c r="G60" t="n">
-        <v>15929.33657294</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>191</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>187</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2493,24 +2569,21 @@
         <v>2146.6954</v>
       </c>
       <c r="G61" t="n">
-        <v>13782.64117294</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>191</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>187</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2532,24 +2605,21 @@
         <v>3792.65341651</v>
       </c>
       <c r="G62" t="n">
-        <v>17575.29458945</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>191</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>187</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2571,24 +2641,21 @@
         <v>5409.75118349</v>
       </c>
       <c r="G63" t="n">
-        <v>12165.54340596</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>191</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>187</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2610,24 +2677,21 @@
         <v>4199.5</v>
       </c>
       <c r="G64" t="n">
-        <v>7966.043405960001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>191</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>187</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2649,24 +2713,21 @@
         <v>9894.607099999999</v>
       </c>
       <c r="G65" t="n">
-        <v>-1928.563694039998</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>191</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>187</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2688,24 +2749,21 @@
         <v>111.49681651</v>
       </c>
       <c r="G66" t="n">
-        <v>-1928.563694039998</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>191</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>187</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2727,24 +2785,21 @@
         <v>8</v>
       </c>
       <c r="G67" t="n">
-        <v>-1920.563694039998</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>191</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>187</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2766,24 +2821,21 @@
         <v>1734.5969</v>
       </c>
       <c r="G68" t="n">
-        <v>-1920.563694039998</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>191</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>187</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2805,24 +2857,21 @@
         <v>1441.8425</v>
       </c>
       <c r="G69" t="n">
-        <v>-1920.563694039998</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>191</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>187</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2844,24 +2893,21 @@
         <v>284.9636</v>
       </c>
       <c r="G70" t="n">
-        <v>-1635.600094039998</v>
-      </c>
-      <c r="H70" t="n">
         <v>2</v>
       </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>191</v>
-      </c>
-      <c r="K70" t="inlineStr">
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>187</v>
+      </c>
+      <c r="J70" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1.026413612565445</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1.048475935828877</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2883,18 +2929,15 @@
         <v>254</v>
       </c>
       <c r="G71" t="n">
-        <v>-1889.600094039998</v>
-      </c>
-      <c r="H71" t="n">
         <v>2</v>
       </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2916,18 +2959,15 @@
         <v>776.5139</v>
       </c>
       <c r="G72" t="n">
-        <v>-2666.113994039998</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2949,18 +2989,15 @@
         <v>916.9034</v>
       </c>
       <c r="G73" t="n">
-        <v>-3583.017394039998</v>
-      </c>
-      <c r="H73" t="n">
         <v>2</v>
       </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2982,18 +3019,15 @@
         <v>13260.2007</v>
       </c>
       <c r="G74" t="n">
-        <v>-16843.21809404</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3015,18 +3049,15 @@
         <v>33.3711</v>
       </c>
       <c r="G75" t="n">
-        <v>-16809.84699404</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3048,18 +3079,15 @@
         <v>555.2305</v>
       </c>
       <c r="G76" t="n">
-        <v>-17365.07749404</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3081,18 +3109,15 @@
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>-17364.07749404</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3114,18 +3139,15 @@
         <v>2177.1585</v>
       </c>
       <c r="G78" t="n">
-        <v>-19541.23599404</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3147,18 +3169,15 @@
         <v>8</v>
       </c>
       <c r="G79" t="n">
-        <v>-19549.23599404</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3180,18 +3199,15 @@
         <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>-19546.23599404</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3213,18 +3229,15 @@
         <v>1012.6817</v>
       </c>
       <c r="G81" t="n">
-        <v>-20558.91769404</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3246,18 +3259,15 @@
         <v>5</v>
       </c>
       <c r="G82" t="n">
-        <v>-20563.91769404</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3279,18 +3289,15 @@
         <v>1286.0366</v>
       </c>
       <c r="G83" t="n">
-        <v>-19277.88109404</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3312,18 +3319,15 @@
         <v>7</v>
       </c>
       <c r="G84" t="n">
-        <v>-19270.88109404</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3345,18 +3349,15 @@
         <v>1248.2239</v>
       </c>
       <c r="G85" t="n">
-        <v>-19270.88109404</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3378,18 +3379,15 @@
         <v>1245.1034</v>
       </c>
       <c r="G86" t="n">
-        <v>-20515.98449404</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3411,18 +3409,15 @@
         <v>4.9278</v>
       </c>
       <c r="G87" t="n">
-        <v>-20511.05669404</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3444,18 +3439,15 @@
         <v>6776.4028</v>
       </c>
       <c r="G88" t="n">
-        <v>-27287.45949404</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3477,18 +3469,15 @@
         <v>20622.6123675</v>
       </c>
       <c r="G89" t="n">
-        <v>-47910.07186154</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3510,18 +3499,15 @@
         <v>835.9967</v>
       </c>
       <c r="G90" t="n">
-        <v>-48746.06856154001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3543,18 +3529,15 @@
         <v>1.7039</v>
       </c>
       <c r="G91" t="n">
-        <v>-48744.36466154001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3576,18 +3559,15 @@
         <v>22</v>
       </c>
       <c r="G92" t="n">
-        <v>-48744.36466154001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3609,18 +3589,15 @@
         <v>617.8134</v>
       </c>
       <c r="G93" t="n">
-        <v>-48744.36466154001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3642,18 +3619,15 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>-48743.36466154001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3675,18 +3649,15 @@
         <v>2277.114</v>
       </c>
       <c r="G95" t="n">
-        <v>-51020.47866154001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3708,18 +3679,15 @@
         <v>1144.1009</v>
       </c>
       <c r="G96" t="n">
-        <v>-51020.47866154001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3741,18 +3709,15 @@
         <v>15.4218</v>
       </c>
       <c r="G97" t="n">
-        <v>-51005.05686154001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3774,18 +3739,15 @@
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>-51005.05686154001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3807,18 +3769,15 @@
         <v>347.302</v>
       </c>
       <c r="G99" t="n">
-        <v>-51005.05686154001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3840,18 +3799,15 @@
         <v>5497.2982</v>
       </c>
       <c r="G100" t="n">
-        <v>-56502.35506154001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3873,18 +3829,15 @@
         <v>1390</v>
       </c>
       <c r="G101" t="n">
-        <v>-56502.35506154001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3906,18 +3859,15 @@
         <v>500.0836</v>
       </c>
       <c r="G102" t="n">
-        <v>-56502.35506154001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3939,18 +3889,15 @@
         <v>3000</v>
       </c>
       <c r="G103" t="n">
-        <v>-56502.35506154001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3972,18 +3919,15 @@
         <v>4355.1085</v>
       </c>
       <c r="G104" t="n">
-        <v>-60857.46356154001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4005,18 +3949,15 @@
         <v>500</v>
       </c>
       <c r="G105" t="n">
-        <v>-60357.46356154001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4038,18 +3979,15 @@
         <v>253.297</v>
       </c>
       <c r="G106" t="n">
-        <v>-60357.46356154001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4071,18 +4009,15 @@
         <v>201</v>
       </c>
       <c r="G107" t="n">
-        <v>-60156.46356154001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4104,18 +4039,15 @@
         <v>2445.5158</v>
       </c>
       <c r="G108" t="n">
-        <v>-62601.97936154001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4137,18 +4069,15 @@
         <v>116.25</v>
       </c>
       <c r="G109" t="n">
-        <v>-62485.72936154001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4170,18 +4099,15 @@
         <v>630.2095</v>
       </c>
       <c r="G110" t="n">
-        <v>-63115.93886154001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4203,18 +4129,15 @@
         <v>215</v>
       </c>
       <c r="G111" t="n">
-        <v>-63330.93886154001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4236,18 +4159,15 @@
         <v>33.8238</v>
       </c>
       <c r="G112" t="n">
-        <v>-63330.93886154001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4269,18 +4189,15 @@
         <v>2705.9843</v>
       </c>
       <c r="G113" t="n">
-        <v>-60624.95456154001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4302,18 +4219,15 @@
         <v>2695.9844</v>
       </c>
       <c r="G114" t="n">
-        <v>-60624.95456154001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4335,18 +4249,15 @@
         <v>7</v>
       </c>
       <c r="G115" t="n">
-        <v>-60617.95456154001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4368,18 +4279,15 @@
         <v>1046.60088905</v>
       </c>
       <c r="G116" t="n">
-        <v>-60617.95456154001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4401,18 +4309,15 @@
         <v>6460.59</v>
       </c>
       <c r="G117" t="n">
-        <v>-67078.54456154001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4434,18 +4339,15 @@
         <v>1069.9464</v>
       </c>
       <c r="G118" t="n">
-        <v>-67078.54456154001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4467,22 +4369,15 @@
         <v>2689.2444</v>
       </c>
       <c r="G119" t="n">
-        <v>-67078.54456154001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>188</v>
-      </c>
-      <c r="J119" t="n">
-        <v>188</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4504,26 +4399,15 @@
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>-67077.54456154001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>188</v>
-      </c>
-      <c r="J120" t="n">
-        <v>188</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4545,24 +4429,15 @@
         <v>856.1711</v>
       </c>
       <c r="G121" t="n">
-        <v>-67933.71566154002</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>188</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4584,22 +4459,15 @@
         <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>-67932.71566154002</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>188</v>
-      </c>
-      <c r="J122" t="n">
-        <v>188</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4621,24 +4489,15 @@
         <v>900</v>
       </c>
       <c r="G123" t="n">
-        <v>-67932.71566154002</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>188</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
